--- a/data/supplementary_tables/xv20220819_Table_S7b_global_CCD_MMEJ_NHEJ_results.xlsx
+++ b/data/supplementary_tables/xv20220819_Table_S7b_global_CCD_MMEJ_NHEJ_results.xlsx
@@ -482,16 +482,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0676245131367709</v>
+        <v>-0.0677636506971293</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.395832178343103</v>
+        <v>-0.397441935939125</v>
       </c>
       <c r="F2" t="n">
         <v>-1.86275913887926</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -560,16 +560,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.199074787192876</v>
+        <v>-0.198536806006858</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.16146308199724</v>
+        <v>-1.16108561843157</v>
       </c>
       <c r="F5" t="n">
         <v>-1.86275913887926</v>
@@ -586,16 +586,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0876851728494168</v>
+        <v>-0.0877214252147846</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.367234746405502</v>
+        <v>-0.367230061341457</v>
       </c>
       <c r="F6" t="n">
         <v>-1.86275913887926</v>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -638,16 +638,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.210368721290822</v>
+        <v>-0.208971586147307</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.0840678545051</v>
+        <v>-1.08399043799705</v>
       </c>
       <c r="F8" t="n">
         <v>-1.86275913887926</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -898,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -950,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -976,16 +976,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0356646651858894</v>
+        <v>-0.0357423357062727</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.154578038797105</v>
+        <v>-0.154577439401712</v>
       </c>
       <c r="F21" t="n">
         <v>-1.86275913887926</v>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -1080,16 +1080,16 @@
         <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.14403941901141</v>
+        <v>-0.143940486043065</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.826615207037005</v>
+        <v>-0.826635321341508</v>
       </c>
       <c r="F25" t="n">
         <v>-1.86275913887926</v>
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0000680417523926582</v>
+        <v>0.0000655635586281293</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1132,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1158,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1184,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1210,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1262,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -1288,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1314,16 +1314,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>0.11080724611947</v>
+        <v>0.110316057878311</v>
       </c>
       <c r="E34" t="n">
-        <v>0.478792955558179</v>
+        <v>0.476930772817817</v>
       </c>
       <c r="F34" t="n">
         <v>6.21275936166456</v>
@@ -1340,16 +1340,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0798008752450547</v>
+        <v>0.0799349350467572</v>
       </c>
       <c r="E35" t="n">
-        <v>0.292173550636342</v>
+        <v>0.292149409229809</v>
       </c>
       <c r="F35" t="n">
         <v>6.21275936166456</v>
@@ -1366,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -1392,7 +1392,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -1418,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -1444,16 +1444,16 @@
         <v>35</v>
       </c>
       <c r="B39" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0656739339904324</v>
+        <v>0.0658477087427423</v>
       </c>
       <c r="E39" t="n">
-        <v>0.318344680650379</v>
+        <v>0.318335975091967</v>
       </c>
       <c r="F39" t="n">
         <v>6.21275936166456</v>
@@ -1470,16 +1470,16 @@
         <v>35</v>
       </c>
       <c r="B40" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0431319439572338</v>
+        <v>0.0441062391941512</v>
       </c>
       <c r="E40" t="n">
-        <v>0.207119421815783</v>
+        <v>0.214213775937902</v>
       </c>
       <c r="F40" t="n">
         <v>6.21275936166456</v>
@@ -1496,7 +1496,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
@@ -1522,16 +1522,16 @@
         <v>35</v>
       </c>
       <c r="B42" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.158121964049606</v>
+        <v>0.158297334194842</v>
       </c>
       <c r="E42" t="n">
-        <v>0.901236776086478</v>
+        <v>0.901145232696357</v>
       </c>
       <c r="F42" t="n">
         <v>6.21275936166456</v>
@@ -1548,16 +1548,16 @@
         <v>35</v>
       </c>
       <c r="B43" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00468503984836929</v>
+        <v>0.0024422860152711</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0241452764362436</v>
+        <v>0.0125734985521018</v>
       </c>
       <c r="F43" t="n">
         <v>6.21275936166456</v>
@@ -1574,16 +1574,16 @@
         <v>35</v>
       </c>
       <c r="B44" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0347245262020521</v>
+        <v>0.0348884463478219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.196400005225434</v>
+        <v>0.196377255441716</v>
       </c>
       <c r="F44" t="n">
         <v>6.21275936166456</v>
@@ -1600,7 +1600,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1626,16 +1626,16 @@
         <v>35</v>
       </c>
       <c r="B46" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0254770759779922</v>
+        <v>0.0255325599630161</v>
       </c>
       <c r="E46" t="n">
-        <v>0.110422919111575</v>
+        <v>0.110422490933099</v>
       </c>
       <c r="F46" t="n">
         <v>6.21275936166456</v>
@@ -1652,16 +1652,16 @@
         <v>35</v>
       </c>
       <c r="B47" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122014229755274</v>
+        <v>0.129127189999869</v>
       </c>
       <c r="E47" t="n">
-        <v>0.452340059518181</v>
+        <v>0.483433000561997</v>
       </c>
       <c r="F47" t="n">
         <v>6.21275936166456</v>
@@ -1678,16 +1678,16 @@
         <v>35</v>
       </c>
       <c r="B48" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0845546608781618</v>
+        <v>0.084672105497958</v>
       </c>
       <c r="E48" t="n">
-        <v>0.434205713116704</v>
+        <v>0.433499162154079</v>
       </c>
       <c r="F48" t="n">
         <v>6.21275936166456</v>
@@ -1704,16 +1704,16 @@
         <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0408005530321264</v>
+        <v>0.0408112563192256</v>
       </c>
       <c r="E49" t="n">
-        <v>0.193719361600464</v>
+        <v>0.19434099743456</v>
       </c>
       <c r="F49" t="n">
         <v>6.21275936166456</v>
@@ -1730,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -1756,16 +1756,16 @@
         <v>35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.023549898796037</v>
+        <v>0.0220289112577038</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0659825654656116</v>
+        <v>0.0579951948379387</v>
       </c>
       <c r="E51" t="n">
-        <v>0.190599570458422</v>
+        <v>0.17207633359861</v>
       </c>
       <c r="F51" t="n">
         <v>6.21275936166456</v>
